--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/63_Ordu_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/63_Ordu_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{676FDEBC-6A57-46CD-A76D-827167A5F096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D75C4719-96BD-4E29-A68B-D11E19F88E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="715" xr2:uid="{D5A4AA93-5CF5-47C0-ABCE-426FDE43511B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="715" xr2:uid="{126E7D24-5239-412A-8C44-EAE4A9B921AB}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -952,14 +952,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{02BDED6A-B198-49FD-9141-B0D68C06DC0E}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{BACDC482-EC96-4EE9-8E77-AE7A8F74DC35}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{D1E4B49A-3E3E-43C1-98E3-5221E0379C26}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{EEFBE2FD-DCBD-4502-A310-6A6D24A5371B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{C44C198A-FA74-40C9-AC0C-0EECB494DE7A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{CF0C3067-EB94-4B12-AB15-60A9E2DF2971}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{07FA7F6A-CC49-4372-B95F-11ECE75FED5E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{9DD66626-7300-4B5D-B7FD-CE26F530E243}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{1C9B7971-5207-4F90-9BC3-75F78F7A2499}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{5F128B75-32A6-45EF-B644-95F5456422AD}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{B787EA76-4F50-488F-9434-5C24E43FB596}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{D4526C34-C14D-4481-BDEE-D545B1309B11}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{B7648D94-0D92-4535-987A-C81BA8FF8B5E}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{7FC20499-0835-4BA1-B390-E646EC17489C}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{54E24DA8-92B3-49DB-94F7-C85A4A89FBB7}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{43DBEA41-327B-4F2C-825D-450B3F7E1AB4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1329,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5960ED8-7337-4118-8279-DCB5E4546D59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D62F748-F145-411A-85E5-B2B4C00F2D8E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2608,18 +2608,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E4DF03B-2385-4B83-AADD-5A3AF75DD016}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2DB09DAE-8B4D-4360-B7FD-0E9E984F54CA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{79894ED4-95F4-4FD2-B12E-3652E5FC22A5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ED3D0B2F-550D-4A22-A608-258EEEDE67FC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E365265D-07AF-4552-B6FD-F6F854421F57}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{68B87925-2068-4570-8764-9D059A5B8010}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{815A2838-BA8C-459F-841A-825BEC82CA8B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4DCFA6C5-C12A-4F13-A492-01658E3FE991}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2D3CF0CE-83D9-4DBC-93B5-888F94E257D2}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DAB0AAB0-9D72-45A4-9C92-002C9644DA0F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{71A1AA35-2D7B-4331-A750-8D815FD502A5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{62C23A55-003F-4689-BF98-7663DC1D26BC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2989083B-74F1-4C5A-889C-7C346EED115B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1EEFA3A4-CE8D-4EFC-BE0B-9696605FAFBA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{49C65F57-3780-40BD-B06C-577468FD3B74}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FCAAE789-3C6E-4029-85A2-BC6E8FB79E80}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B6196B5E-239C-4F18-BBF9-2393FA5336BC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C217F254-4F5C-46ED-8AAD-4277B6C6690E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{23219FEA-78B7-4F30-AB61-3C2068912692}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6EA40F4D-99DD-4622-92EE-CE660B9B7C7C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{84B343BB-2D14-402B-AA04-8C531468FFD2}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3E4DFEB3-D2A6-4CF4-B652-31364E3952A2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{774136D7-FC76-4161-A644-7C7EA8CC6D07}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A9B20604-B486-46F9-A050-FE5083AC6B05}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2632,7 +2632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D600511B-9F51-49DF-86E5-756C994B86BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C497F9EC-AFE3-4842-A9CE-82E682715DFB}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3884,18 +3884,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AAABC719-8CA1-4EEF-A040-484C4DE6C95D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8498553A-0FA9-44C9-95CE-E288D8CDD7DE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DA283743-751C-4946-94AD-4DFD136D25B3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4C654D38-4B33-42C9-BA53-40E71247ABDD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{492B11CA-25A4-468F-BDB9-37CCDD3944E0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8DBD1111-9CE8-4AD7-B5E4-F90C7EDB2E81}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{873EDC7D-6B05-4298-8842-A0958335702B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FED0BB15-AFED-493C-8C84-9C6FED0009BC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{378EA1ED-0F49-4E78-A9B1-FFA953F68B85}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7FBCD392-D615-4ACE-8155-C446570A4C4F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{19C01FDC-A4DC-4410-90B6-DEDB5CFBE4F0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D4C35537-AB65-44CC-9476-BDF684175D84}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{20F6EEEC-2A44-4DF2-82A9-DD97DBF25021}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2EDE95DB-1696-4FBF-857A-A83924DFEB5E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{99D990C7-217F-4BBB-B47B-CFD52193827A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1E35EE9D-6D64-45B4-B50F-FF6EFA9EB4F1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A47689C3-AD4F-4137-985E-5477DCCEE290}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4F3780CA-879F-432B-A42E-C47D16B65DE4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB1AFE5A-7CD5-439E-9581-4E9D14E2A0BC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C9A638A-BF5B-46C6-9FD7-18DA0F33416F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{67C54555-49F5-4E6A-97D7-0991A5F1B28B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{90728A30-6EFD-431A-B8ED-E6285A756999}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{66BD0FFD-0642-482D-8379-645FD9962A60}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{05B671CB-8FA1-4B53-ADCB-E438875A55BC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3908,7 +3908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3B1445-DD95-4974-9DF2-08ADFC8E89C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67013F28-4CF1-4390-B38C-18EBAC51D77C}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5152,18 +5152,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A13A34A9-B381-4C6F-B13A-A8F808964C39}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{62A1D339-1421-4458-A493-41FA58058145}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{56DBA27D-F1CF-450B-A849-FFEA0B45DFB1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BC6CB5A8-0282-40D2-9121-DF2BD5A860A8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB7D4D30-8837-4695-B7EA-EE621474048E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{23FFADEB-8A05-48B2-B4CD-FC02BBE3D448}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC1B7C2A-F03A-4009-8417-FBB1B5B70E4D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D17DB67A-A0A2-4CB6-9762-95E7E1D6EE35}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D226E21-B454-4527-892E-91B50EEF72ED}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2FE02F93-C137-4481-BA36-E03F9755F00C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8885A539-82AD-4CA4-8AAC-4842479F2D82}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F56A378-8688-4EA4-AC08-0484DA3FAC5A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1880CB86-E28C-416B-9CE5-1E85560CB742}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A780A55E-69CF-4AA2-867F-B70991948710}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7123F444-A0E5-422B-B4E4-2DF5C4BEC356}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{16ED2E16-A40E-4DDB-B7FE-3CF54B4E8E77}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A11E23B-C31C-419E-8526-BC7A6C5FF212}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{74739E8A-06AC-4865-B622-65D9B3C6DD6D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17883199-0645-43EB-82AC-9B3778CE7B50}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{76702A49-856B-40F8-BD73-78B3E38107F2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{22B338FF-59B4-4C4C-8614-2E0028AC00C1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{24BDE4F2-BC98-4670-8C95-7EDCCD6DEFE9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{875E6AE8-6EED-46BC-B20F-19E6B91BE233}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A5AE8015-AE83-44A0-8998-0743BEA75CA3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5176,7 +5176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BBDDA7-76CA-43F1-94C4-3FC6045D8F4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3017943B-599A-4F65-80CB-883D87E8EECD}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6410,18 +6410,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C76F08B6-D7A4-4B31-9242-5195E59832C9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{418C8C14-7839-4E78-BAE8-5F6424F066A2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B3F2D4C5-D2AA-4DC4-8B09-5EA6441D8352}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A4A012C5-EA7F-42A5-8FA5-AB5CD7AE8B72}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{29B6067F-6457-4922-8FB2-ED06E9260E01}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E0E3DED6-4795-48E0-B007-EF3AEBAFB291}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{584D2796-E76C-4367-9DF2-EBB7261C4D20}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48CDB43C-5D4B-4683-A0DF-B1ABA4BFF25C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{705CE6E9-9C9E-490B-A5D6-0894F4B760C7}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6DA7236A-3107-4BC3-93F0-BD0F91C08398}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{965902E7-79A7-4E87-BC01-57BB3DFBF2CF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C28DEA96-4B53-4AF7-8E18-A3A3C06E1FF9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4237FBE0-C19D-4398-AFAB-AD2A22DFDF52}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{704DA6F3-8D81-4B0C-A3CD-5912B5CEB6EC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{04B41651-AF2A-46B8-B1AC-F5E81F3D139C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F8A30EDE-EE45-4425-BBE4-A72E0D0C184B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3AD6E754-8351-42A0-A59B-805D06F87BC7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{81B7AD26-6C8C-471B-B699-FB3246FEFF7A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8F12D49-E689-48AD-AA69-2CCEEF1118BB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{24FEC3E5-7408-49BF-99B0-D72ACFF6D14E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D0D7358A-F5A9-4EE7-B44A-B9F16277F010}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C6042E39-125E-4453-8D58-733BCA4802F7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7FCDA100-532A-4851-9037-82A299991F96}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{015AF4BD-2041-4D94-92B2-8110236362C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6434,7 +6434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4F457F-6415-444E-9CCC-A0EEB63FAF33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A322D99-2102-43A0-AD25-0F270002D359}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7709,18 +7709,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC0B9566-0EAF-4263-8444-578073C80117}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E44EE075-5983-4FB5-A4B4-2AD024B42AAF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F719FFCA-AE87-4A84-A3A7-B3E1B80D80A6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2BC778DB-B45D-46BC-8BFF-37207469FC70}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8104EC71-E739-4517-9EC1-C464717082CF}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FC202848-9F78-4DE6-8B6B-0C569EF8AC0D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A8FFAA0F-D6E3-442F-BE71-93B98DDE2651}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9F046A4-C6D5-44D1-A659-70176A83617C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2B0FC4FC-6B2B-44BC-AA4B-53A14AC98CEE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{61030F0A-EB27-49C4-9ADB-85F435C5E7C4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F5DB25F-5DB0-4B0C-8FE5-776B24A02BF9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FC65A031-988F-4FA7-A09E-BD0F8E9BABCC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1225B01-E119-4F9E-9E86-1FA560AC8914}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B0398F87-5FEF-4AF1-9443-2AFAC74715AC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6308F189-BEFE-4792-AAF8-04997AAC1C46}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D68E1F3C-2849-404A-B6AB-ABC09B195138}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F762B514-80C5-41AE-AD2B-219CEA8EA556}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{338A729D-CDD3-4563-90F2-6E72EC321755}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{222C5C2E-2CDE-49F0-A3B9-A1606854D3A7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BBAEFC80-8342-4A90-B40D-74AD2BA1E70A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5235F7EB-37CC-4447-AE9D-B2360A52AA07}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AEFAAA08-0C82-4417-9E29-072C1F5AC7B0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{379215EB-4206-4CAA-A354-96D00F146F55}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{49BE0C41-7178-4443-B3B7-7E6597ADC66E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7733,7 +7733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3799DC-4CCF-4800-84C1-662273FE9A3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF88C633-56B7-4AEF-BC86-A2BC387F5304}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -9009,18 +9009,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CFDA339F-B30D-40A9-9074-6428B1065C1E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0CB5F7F3-FF8B-4566-85EB-92E10E826BC9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{05CEE667-ACE1-4488-95C2-7711F4E64172}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DE7284A2-2FE1-4448-A9CF-E5774F790641}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0EFF44BF-6233-40C6-B389-7CD2E1C8B3A6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3D3A3362-E8B0-49E3-B9D5-554CCE13FBD0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A725E68-1B11-40AD-9A26-F87448602B68}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A5F637E8-1F33-489E-8678-27533D1E73D8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6DF6565A-8C9E-4B45-9DAB-B8940527CFE9}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C511BEF2-1ECC-446B-8D36-82704BF1E0A5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F044E5DD-F956-40B2-BF0C-7C74B8289158}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B60AF87B-B07A-4334-B654-52E62EF77CB5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{410E446E-F098-44C6-81A2-0ACC670F4A18}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{88A7584D-23A4-450D-A26E-8FA4DBB1A519}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{70361005-A4B4-4C70-A7F3-CA6949B9DFAE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BA2E828B-AAA9-4766-B3B4-8D0195368CEB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{077AF824-1735-4AFB-8FA5-4E938373F6B7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A16992A1-4B2F-4816-91BE-61FD73FC6BDD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D8827826-A5A6-4E4B-93E6-192AA2196644}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4F748DBD-8E4D-4FEB-9A84-45FC80773E27}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9884772E-0E7D-4173-9D62-7ECE312E7DAC}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{370A6577-78F5-4EF1-B731-761FB41FAE36}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8292E98B-3AB1-4F3E-AB0B-DA5A2C0580F7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A74BD3EE-8C1E-4BC9-A443-48B2555D0DFD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9033,7 +9033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BFF158-39CB-4573-B98A-CBD14E705634}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0B6946-C611-4B73-B5A1-80CE87433436}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10309,18 +10309,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{022A3C0C-76DD-4655-ABF0-C289D6E6E0F4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8539F6D8-35CB-47BC-8CBE-D1FAF2AFC55E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{972C9816-25BA-4A9C-ACE9-1D44B596B8AD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{36167CD7-47CC-4BA2-AA5D-30680DE8CF75}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{65D27B0A-9B66-4F58-8E85-E1661DF26470}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5113FD0F-4355-42A5-9531-ED0725EF68E3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ECA8C7D8-1A66-4BB7-A994-666E9289FA1B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A2173FE0-4549-4465-B703-65DFD0297709}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FD960734-6726-49F6-949B-8F929F84D328}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AE15F6AB-6832-4C63-9864-BEF29A6B6DA4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B74A30C4-8183-4CA4-91E9-A0D0F38F9794}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E49EB28-CF05-473D-8896-59F1D64FD2A6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E17E53C-9A4E-490A-BE03-BA128A0A29B8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E02ACC0-3BB6-4F70-9DD7-244FA572A2D0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5A443E5C-90E5-4E63-BA14-07E36676EC5F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DBAC86D2-01E4-46D9-8052-C3F41535AE95}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{85120214-85A6-4C2C-9698-DE46DE7E8A10}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5D5FE5D8-6EA1-459B-A762-96FE232FFE1E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F13B0986-9934-4351-95D6-CE944FC074E4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3D284282-E0DB-4F22-BC85-9AE933B5E03B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{74E54CDE-1D9A-4D17-8793-FB0768709039}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D89F0A3A-C731-4BA0-824C-D1AAF0521773}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E2C570C-494E-4C9F-8350-8E6C9333C8A5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7366A5C6-BB2B-43E6-9986-CB6D1AF4BDC5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10333,7 +10333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5D019E-339B-4157-B11B-8194A178D8BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E730B-D94B-474E-A1AA-69FAC8762548}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11609,18 +11609,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E9DADBFF-6A1F-431B-87A9-547B87B28CE6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{22136E4D-A7F4-4CB7-8DE9-3656953324F8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{60441E4B-2B09-407B-B6CB-40FEA6CF735F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{75D82FE5-C9DB-4935-A5A0-E345A73D4D7D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A83F6544-FDD7-4DD6-BB47-A844A459E724}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{956A312D-4A69-480F-B926-CBE30748DAF2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F57232FE-4F95-4D09-A755-D2DE087B1E8B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2722467C-2192-4F79-9CDA-8F5479488C8F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{24246332-2013-4F29-9C24-7BC33A490ADB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4116158A-4EA1-4145-847E-F0ADC1C63BF6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F4323A06-62DE-4467-9AB9-8E79380CF3A6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{709017E0-53DE-4EED-9EFA-C9BA94BB8C14}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2CE43DB8-052E-42B6-ACEF-38C7265C9709}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C6ACAE4D-D087-43DA-B8ED-5F30E3265BD4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D62E8CA3-5E71-4ACF-8E12-4AAE7E861516}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ABB49457-3667-478E-9F66-8757107501A0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C27A84DE-112A-4818-AC11-629A886E9CED}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F7EFF7D7-478B-4F02-AF24-4C8787484EF7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BEA74D4B-95F2-4200-93D1-73817F7BFDE6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{16F8D6ED-6980-4A7C-8ACC-4D3291BB8BFB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{227D08EA-AD9A-499A-8D2B-E5A6C47263BC}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CB32A521-4447-4475-B746-C596E78FD102}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE04C73E-7053-4697-9B42-CAAFA0E8108C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1C383663-4717-449E-BD13-50577C926361}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11633,7 +11633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF841436-1AC1-4E35-B737-DB37121A4BC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5253CED-3F2A-4E5C-8CB6-474AD42A7B70}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -12901,18 +12901,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9DCAC4AE-3241-4E19-A896-B801F7A4C468}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{88CB1D21-8C75-40C3-87C4-2859BD308FFC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E818A4C7-B1E4-4715-B3F5-0472082CD199}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E4119D5C-46B9-4770-AB22-B2AA350A7E98}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4637B3F8-3F1A-44E5-BA27-EC28B7EE2BCC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2BFF42E6-40D0-4706-BD49-CCC6FDB90AAE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4EFA56FD-C701-4F92-A346-9145F525D2BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7B5F542C-EDF1-4371-8A3B-99F44347F47C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AAA63544-08AD-43B8-BABB-9E34A627B6A1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D3F0B98D-853D-44F2-B4ED-871D93DFBBF4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AFD48C55-0774-421F-B02B-E860A699A38F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D05C01AD-6E11-4FEA-A39E-69288E68773A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B068010-3FA2-4FE2-B80C-3963464681C9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{98253167-07BE-483F-A674-9214DE2B7623}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6E26B12D-C493-4E25-A64C-F8467B6D5B32}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8A96B6EC-F850-4685-97EE-641BF1B9E480}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{44FB5795-8D7F-4C28-8307-D0046BA38FEC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{98D5C937-C2DE-4A0E-9ECE-BF2C7855E80A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{316519D5-01B2-4655-B0CF-BD3869F7BD8B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0FE0F381-C772-4201-983F-C49DF8E77848}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D700BE24-ACEF-4544-A5BE-77627F4C20F9}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{84660095-FF42-4DF3-895F-5D33C8B4ABA0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{041948C5-95D3-4206-B332-7F849C929B2A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{97E8F330-71A4-42A0-9D92-604A914DD3B2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12925,7 +12925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F08C4D-52E2-4A3C-A4B3-F755EE64CCE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E0991C-2C0F-4E1B-99D2-37B1732B06F9}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14177,18 +14177,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{382820DE-7870-4A64-B494-511E3F6A5676}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1AB1E21F-FD34-4A8C-80CB-833664CC7473}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{888287A6-0BBF-433E-B0A7-364A55D58A2A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{243DDA37-5177-4885-B21A-3232B954A077}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AE49802B-A870-4F79-A433-CA46400620E0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{241A1729-3617-4020-9E5E-2CB6015819D8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4894DBA5-12CF-4E36-8C1F-F0C3B744BD0C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BE4E3CEE-30EC-4335-810D-962A78BCC329}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CBB2A469-28A6-4C6E-9669-DDC14CBF0C03}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FB3AE5D2-BFE4-4DA8-A4C8-E64AB63EE0E0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C43BB04C-D472-4726-A78E-AD9823A5FBCC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5A0429EA-CB92-4A32-9F50-AF9A24D7F510}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D34A0B81-8680-4AB2-9638-858CBAEFA89E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07AA0898-DAFF-44DA-B29C-9E93818EB3CE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D990A35A-4C6A-41BC-BA55-47DBC7D1EE8E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{776F3EFE-AADB-4994-B69D-A643A73F27AB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D0810313-BE88-424C-933F-C9C49DC8A2C2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F6378384-6DC3-40E9-B4BA-5FEC9F733BFE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5EA1A0DA-40D2-44A8-A5DA-9203AF86D88B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{130C03F9-F9B3-4424-987E-B1EF5C3B81C0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{79764AE3-C0A8-4420-9E00-61080ACE65B5}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{183B15AC-6618-4285-AA83-ADFD6B02256F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F47339C4-4182-46DE-BD68-C565A30FED9E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{40CC411F-05CC-47D7-A74A-FCCA736DCA53}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14201,7 +14201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEF436D-4385-46A4-AB2C-7A0FA9E587B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA7E0EF-1FFF-4521-809E-CD1288A75E7A}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15453,18 +15453,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D5968F5-6115-4EA1-9432-9C3BA3826BF7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D67130F-0E3F-48D9-B5B8-DCCA39CBB59A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{520FE8A6-FF46-4C32-8BBD-383DB339F424}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7B48769C-CDB2-4667-BCAB-5B4C0808F3F1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CA90E16D-2010-4628-A91E-7FE733C8AE48}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9E7D7ABD-D842-4A1C-B49F-74C15FBF2EA6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C28CF96-5493-4CEC-89E6-34BEA82E1512}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A9C8B21-FF46-4010-973F-28ED4AC7D9E3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B97E7CE6-C33D-44BF-8D33-803064F47646}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{595C5564-61CE-4B64-972A-4BAE642AE77C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{12052293-7A69-49A4-8A55-EA2F857FE81D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{441897E0-8B53-4D4C-8410-C71934BE74BD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E38360C0-4A27-4040-B006-630452EE461E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{33C5A8B4-D3EB-4B85-A83E-ED3C411294DB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1ED0EE67-20FA-4E97-B274-65E097B07E0E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BB49B1E7-412D-4F62-9C51-D5CCBB81A875}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{703B2E5C-7285-42C9-9786-E2535D6D6966}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{753435C3-9A05-43FC-830C-75D8C216C4E0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6C3E1518-81D7-4982-A721-7C79E0CC42A1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E06ED435-3D77-44D8-87C3-9A002B69C5AC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9F69B463-7DDF-44EA-AE8C-2519CC7F736E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C360B52E-5AA1-4B78-A133-198035C236B0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E8662132-6451-4166-BA91-2D848A0A4832}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{15A760E7-2551-4705-92E4-34758F3DC996}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15477,7 +15477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57DCA51-7F53-48E8-B43F-DB4A57FF3472}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0FE974-A854-43E9-94DC-0E39440A18BA}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16729,18 +16729,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B358344D-151F-4CF1-B3A3-D2095E5DF952}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF655AAF-9F58-472E-8843-9EB53EC28113}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AB13E369-6859-498A-94A9-814485265055}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9C695475-0475-4AB4-9701-752BB1788B1A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A8D92427-7D60-4A80-8F1E-77B0B60B9E8D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9DA4B066-9D0D-45B1-B618-F13D1A4BB360}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A3654EBA-68CF-4ACE-80E6-28C43E1426E9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B7CBD75-1AE2-4AC4-92C2-B977431A1789}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6BD90EF8-0234-44A1-9479-49019811654E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{17EEC6B1-C904-4B95-9215-EBA25549692E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C41CD236-2CAA-4819-AE66-80B6682DB921}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BE33DAF-1BA9-45C6-83EE-C709AFBD608B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DE645093-1627-4788-B4FF-E5FFAC42B9DD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D3B016F8-2757-441D-BC76-41ED8491423D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2EFB720D-B3A3-42F7-8119-5C22AD8F4634}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{729A0383-01BF-479E-B45F-4F2A640BE12D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B8AA2D69-F850-4E38-B708-B4A9A63BE984}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{19CB745D-CE69-40BF-AFA1-95861BC5F396}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89883871-6AEF-4E64-902F-445DB7832815}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FCCA486D-E96B-4216-979B-78835E4895E1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FAA0F26A-C74C-473D-AD11-7AD766295D93}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7F3A91DB-C8E5-4FCE-9440-F25CBC012C43}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A6ABC8E8-FF90-4366-8343-BF3F6C1ED989}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9A7DB557-05F1-496E-B705-D89C4663C052}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
